--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk.sharepoint.com/sites/6.semester939/Delte dokumenter/General/Bachelorprojekt/R ting/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk.sharepoint.com/sites/6.semester939/Delte dokumenter/General/Bachelorprojekt/Entomopathogenic-Nematodes-AAU/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="514" documentId="11_B81F80CCF8841716E8AD35F2BE0E1CE044A6B22B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A118BCDE-9173-4A26-8EAA-A6DB98AF5624}"/>
+  <xr:revisionPtr revIDLastSave="516" documentId="11_B81F80CCF8841716E8AD35F2BE0E1CE044A6B22B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C52D5ED3-1625-42B7-A533-6A5693760149}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,6 +128,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -141,13 +147,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,8 +437,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1766,7 +1773,1340 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B55"/>
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" ref="C5:C28" si="0">C2+1</f>
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D18" s="1">
+        <v>2</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2</v>
+      </c>
+      <c r="E21" s="1">
+        <v>1</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>3</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D28" s="1">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C29" s="4">
+        <v>1</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+      <c r="F29" s="4">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4">
+        <v>1</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4">
+        <v>2</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="4">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4">
+        <v>3</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+      <c r="F31" s="4">
+        <v>3</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="4">
+        <f t="shared" ref="C32:C55" si="1">C29+1</f>
+        <v>2</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D40" s="4">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>1</v>
+      </c>
+      <c r="F40" s="4">
+        <v>1</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D41" s="4">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+      <c r="F41" s="4">
+        <v>1</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+      <c r="F42" s="4">
+        <v>1</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+      <c r="F43" s="4">
+        <v>2</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D44" s="4">
+        <v>1</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+      <c r="F44" s="4">
+        <v>0</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D45" s="4">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+      <c r="F45" s="4">
+        <v>0</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D46" s="4">
+        <v>3</v>
+      </c>
+      <c r="E46" s="4">
+        <v>1</v>
+      </c>
+      <c r="F46" s="4">
+        <v>0</v>
+      </c>
+      <c r="G46" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C47" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D47" s="4">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>2</v>
+      </c>
+      <c r="F47" s="4">
+        <v>2</v>
+      </c>
+      <c r="G47" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C48" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D48" s="4">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4">
+        <v>3</v>
+      </c>
+      <c r="F48" s="4">
+        <v>0</v>
+      </c>
+      <c r="G48" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="4">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+      <c r="F49" s="4">
+        <v>2</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D50" s="4">
+        <v>1</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <v>2</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C51" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D51" s="4">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+      <c r="F51" s="4">
+        <v>1</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C52" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D53" s="4">
+        <v>1</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4">
+        <v>2</v>
+      </c>
+      <c r="F54" s="4">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D55" s="4">
+        <v>3</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+      <c r="F55" s="4">
+        <v>2</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD697CA-E249-4FA8-8929-1A7A2A1AF43C}">
+  <dimension ref="A1:G55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1803,7 +3143,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1826,7 +3166,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1838,7 +3178,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>9</v>
@@ -1849,7 +3189,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1872,7 +3212,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C28" si="0">C2+1</f>
@@ -1882,7 +3222,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
         <v>0</v>
@@ -1896,7 +3236,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -1906,1344 +3246,12 @@
         <v>2</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>2</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>0</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <v>1</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>1</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>0</v>
-      </c>
-      <c r="F14" s="1">
-        <v>1</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D16" s="1">
-        <v>3</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <v>1</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D19" s="1">
-        <v>3</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <v>1</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2</v>
-      </c>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
-      </c>
-      <c r="E22" s="1">
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <v>3</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>3</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D28" s="1">
-        <v>3</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1</v>
-      </c>
-      <c r="D29" s="4">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>0</v>
-      </c>
-      <c r="F29" s="4">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1</v>
-      </c>
-      <c r="D30" s="4">
-        <v>2</v>
-      </c>
-      <c r="E30" s="4">
-        <v>2</v>
-      </c>
-      <c r="F30" s="4">
-        <v>1</v>
-      </c>
-      <c r="G30" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C31" s="4">
-        <v>1</v>
-      </c>
-      <c r="D31" s="4">
-        <v>3</v>
-      </c>
-      <c r="E31" s="4">
-        <v>0</v>
-      </c>
-      <c r="F31" s="4">
-        <v>3</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="4">
-        <f t="shared" ref="C32:C55" si="1">C29+1</f>
-        <v>2</v>
-      </c>
-      <c r="D32" s="4">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>1</v>
-      </c>
-      <c r="F32" s="4">
-        <v>1</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D40" s="4">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4">
-        <v>1</v>
-      </c>
-      <c r="F40" s="4">
-        <v>1</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C41" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D41" s="4">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>0</v>
-      </c>
-      <c r="F41" s="4">
-        <v>1</v>
-      </c>
-      <c r="G41" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C42" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D42" s="4">
-        <v>2</v>
-      </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C43" s="4">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="D43" s="4">
-        <v>3</v>
-      </c>
-      <c r="E43" s="4">
-        <v>0</v>
-      </c>
-      <c r="F43" s="4">
-        <v>2</v>
-      </c>
-      <c r="G43" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C44" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D44" s="4">
-        <v>1</v>
-      </c>
-      <c r="E44" s="4">
-        <v>0</v>
-      </c>
-      <c r="F44" s="4">
-        <v>0</v>
-      </c>
-      <c r="G44" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D45" s="4">
-        <v>2</v>
-      </c>
-      <c r="E45" s="4">
-        <v>0</v>
-      </c>
-      <c r="F45" s="4">
-        <v>0</v>
-      </c>
-      <c r="G45" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C46" s="4">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="D46" s="4">
-        <v>3</v>
-      </c>
-      <c r="E46" s="4">
-        <v>1</v>
-      </c>
-      <c r="F46" s="4">
-        <v>0</v>
-      </c>
-      <c r="G46" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C47" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D47" s="4">
-        <v>1</v>
-      </c>
-      <c r="E47" s="4">
-        <v>2</v>
-      </c>
-      <c r="F47" s="4">
-        <v>2</v>
-      </c>
-      <c r="G47" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C48" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D48" s="4">
-        <v>2</v>
-      </c>
-      <c r="E48" s="4">
-        <v>3</v>
-      </c>
-      <c r="F48" s="4">
-        <v>0</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C49" s="4">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="D49" s="4">
-        <v>3</v>
-      </c>
-      <c r="E49" s="4">
-        <v>0</v>
-      </c>
-      <c r="F49" s="4">
-        <v>2</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D50" s="4">
-        <v>1</v>
-      </c>
-      <c r="E50" s="4">
-        <v>0</v>
-      </c>
-      <c r="F50" s="4">
-        <v>2</v>
-      </c>
-      <c r="G50" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C51" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D51" s="4">
-        <v>2</v>
-      </c>
-      <c r="E51" s="4">
-        <v>0</v>
-      </c>
-      <c r="F51" s="4">
-        <v>1</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="D52" s="4">
-        <v>3</v>
-      </c>
-      <c r="E52" s="4">
-        <v>1</v>
-      </c>
-      <c r="F52" s="4">
-        <v>1</v>
-      </c>
-      <c r="G52" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B53" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C53" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D53" s="4">
-        <v>1</v>
-      </c>
-      <c r="E53" s="4">
-        <v>1</v>
-      </c>
-      <c r="F53" s="4">
-        <v>1</v>
-      </c>
-      <c r="G53" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C54" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D54" s="4">
-        <v>2</v>
-      </c>
-      <c r="E54" s="4">
-        <v>2</v>
-      </c>
-      <c r="F54" s="4">
-        <v>1</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B55" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C55" s="4">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="D55" s="4">
-        <v>3</v>
-      </c>
-      <c r="E55" s="4">
-        <v>0</v>
-      </c>
-      <c r="F55" s="4">
-        <v>2</v>
-      </c>
-      <c r="G55" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADD697CA-E249-4FA8-8929-1A7A2A1AF43C}">
-  <dimension ref="A1:G55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>1</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>2</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="1">
-        <f t="shared" ref="C5:C28" si="0">C2+1</f>
-        <v>2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4426,6 +4434,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D3C73EB4DC7E424F8E88976083EFB40A" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9e56642614725b15175a754afa580b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2972b0dc-37a4-4443-8a0f-5e322e7b1dfd" xmlns:ns3="ef110ae8-ab7e-4a21-adae-02b6ff5411d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f87c21b0a9332d8d443fbfceef534e3" ns2:_="" ns3:_="">
     <xsd:import namespace="2972b0dc-37a4-4443-8a0f-5e322e7b1dfd"/>
@@ -4626,15 +4643,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4647,6 +4655,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{914132DE-3F4D-4E71-AB4A-A4E91A72FC00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB45AA5F-0C84-49D3-937A-85501C94C0FC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4661,14 +4677,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{914132DE-3F4D-4E71-AB4A-A4E91A72FC00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aaudk.sharepoint.com/sites/6.semester939/Delte dokumenter/General/Bachelorprojekt/Entomopathogenic-Nematodes-AAU/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="516" documentId="11_B81F80CCF8841716E8AD35F2BE0E1CE044A6B22B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C52D5ED3-1625-42B7-A533-6A5693760149}"/>
+  <xr:revisionPtr revIDLastSave="536" documentId="11_B81F80CCF8841716E8AD35F2BE0E1CE044A6B22B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A2B0F94-6205-4A59-B6B1-5EBF82CB2866}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st sampling" sheetId="1" r:id="rId1"/>
@@ -43,19 +43,13 @@
     <t>location</t>
   </si>
   <si>
+    <t>date</t>
+  </si>
+  <si>
     <t>sample</t>
   </si>
   <si>
     <t>subsample</t>
-  </si>
-  <si>
-    <t>Forest</t>
-  </si>
-  <si>
-    <t>Beet Field</t>
-  </si>
-  <si>
-    <t>date</t>
   </si>
   <si>
     <t>dead.worms</t>
@@ -67,13 +61,19 @@
     <t>infected</t>
   </si>
   <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>First baiting</t>
+  </si>
+  <si>
     <t>Negative</t>
   </si>
   <si>
     <t>Positive</t>
   </si>
   <si>
-    <t>First baiting</t>
+    <t>Beet Field</t>
   </si>
   <si>
     <t>Second baiting</t>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,7 +103,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -128,12 +128,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -147,14 +141,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -441,44 +434,44 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="5" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.77734375" customWidth="1"/>
-    <col min="9" max="9" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -496,12 +489,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -519,12 +512,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -542,12 +535,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C28" si="0">C2+1</f>
@@ -566,12 +559,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="0"/>
@@ -590,12 +583,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="0"/>
@@ -614,12 +607,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="0"/>
@@ -638,12 +631,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="0"/>
@@ -662,12 +655,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="0"/>
@@ -686,12 +679,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="0"/>
@@ -710,12 +703,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="0"/>
@@ -734,12 +727,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="0"/>
@@ -758,12 +751,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
@@ -782,12 +775,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
@@ -806,12 +799,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
@@ -830,12 +823,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
@@ -854,12 +847,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="0"/>
@@ -878,12 +871,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="0"/>
@@ -902,12 +895,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="0"/>
@@ -926,12 +919,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="0"/>
@@ -950,12 +943,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="0"/>
@@ -974,12 +967,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="0"/>
@@ -998,12 +991,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="0"/>
@@ -1022,12 +1015,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="0"/>
@@ -1046,12 +1039,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="0"/>
@@ -1070,12 +1063,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="0"/>
@@ -1094,12 +1087,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="0"/>
@@ -1118,12 +1111,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C29" s="4">
         <v>1</v>
@@ -1141,12 +1134,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C30" s="4">
         <v>1</v>
@@ -1164,12 +1157,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C31" s="4">
         <v>1</v>
@@ -1187,12 +1180,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C32" s="4">
         <f t="shared" ref="C32:C55" si="1">C29+1</f>
@@ -1211,185 +1204,185 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>0</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>0</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+      <c r="F37" s="4">
+        <v>0</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>0</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>0</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4">
-        <v>0</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>0</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>0</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4">
-        <v>0</v>
-      </c>
-      <c r="F37" s="4">
-        <v>0</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>0</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>0</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="D40" s="4">
         <v>3</v>
       </c>
@@ -1403,12 +1396,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C41" s="4">
         <f t="shared" si="1"/>
@@ -1427,12 +1420,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C42" s="4">
         <f t="shared" si="1"/>
@@ -1451,12 +1444,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C43" s="4">
         <f t="shared" si="1"/>
@@ -1475,12 +1468,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C44" s="4">
         <f t="shared" si="1"/>
@@ -1499,12 +1492,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C45" s="4">
         <f t="shared" si="1"/>
@@ -1523,12 +1516,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C46" s="4">
         <f t="shared" si="1"/>
@@ -1547,12 +1540,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C47" s="4">
         <f t="shared" si="1"/>
@@ -1571,12 +1564,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C48" s="4">
         <f t="shared" si="1"/>
@@ -1595,12 +1588,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C49" s="4">
         <f t="shared" si="1"/>
@@ -1619,12 +1612,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C50" s="4">
         <f t="shared" si="1"/>
@@ -1643,12 +1636,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C51" s="4">
         <f t="shared" si="1"/>
@@ -1667,12 +1660,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C52" s="4">
         <f t="shared" si="1"/>
@@ -1691,12 +1684,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C53" s="4">
         <f t="shared" si="1"/>
@@ -1715,12 +1708,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54" s="4">
         <f t="shared" si="1"/>
@@ -1739,12 +1732,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C55" s="4">
         <f t="shared" si="1"/>
@@ -1772,43 +1765,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC3B026-12F1-4A2A-B251-DD3DBC729025}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
@@ -1829,9 +1822,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
@@ -1852,9 +1845,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>12</v>
@@ -1875,9 +1868,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
@@ -1899,9 +1892,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -1923,9 +1916,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -1947,9 +1940,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
@@ -1971,9 +1964,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>12</v>
@@ -1995,9 +1988,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
@@ -2019,9 +2012,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
@@ -2043,9 +2036,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -2067,9 +2060,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -2091,9 +2084,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -2115,9 +2108,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -2139,9 +2132,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>12</v>
@@ -2163,9 +2156,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>12</v>
@@ -2187,9 +2180,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>12</v>
@@ -2211,9 +2204,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>12</v>
@@ -2235,9 +2228,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>12</v>
@@ -2259,9 +2252,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>12</v>
@@ -2283,9 +2276,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>12</v>
@@ -2307,9 +2300,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>12</v>
@@ -2331,9 +2324,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>12</v>
@@ -2355,9 +2348,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>12</v>
@@ -2379,9 +2372,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>12</v>
@@ -2403,9 +2396,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>12</v>
@@ -2427,9 +2420,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>12</v>
@@ -2451,9 +2444,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>12</v>
@@ -2474,9 +2467,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>12</v>
@@ -2497,9 +2490,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>12</v>
@@ -2520,9 +2513,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>12</v>
@@ -2540,189 +2533,189 @@
       <c r="F32" s="4">
         <v>1</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+      <c r="F33" s="4">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="D34" s="4">
+        <v>3</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>0</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C35" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+      <c r="F35" s="4">
+        <v>0</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D36" s="4">
+        <v>2</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+      <c r="F36" s="4">
+        <v>2</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="4">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4">
+        <v>1</v>
+      </c>
+      <c r="F37" s="4">
+        <v>2</v>
+      </c>
+      <c r="G37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C33" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D33" s="4">
-        <v>2</v>
-      </c>
-      <c r="E33" s="4">
-        <v>0</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+      <c r="D38" s="4">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <v>1</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B34" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C34" s="4">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="D34" s="4">
-        <v>3</v>
-      </c>
-      <c r="E34" s="4">
-        <v>1</v>
-      </c>
-      <c r="F34" s="4">
-        <v>0</v>
-      </c>
-      <c r="G34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="4" t="s">
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B35" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C35" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D35" s="4">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>0</v>
-      </c>
-      <c r="F35" s="4">
-        <v>0</v>
-      </c>
-      <c r="G35" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D36" s="4">
-        <v>2</v>
-      </c>
-      <c r="E36" s="4">
-        <v>0</v>
-      </c>
-      <c r="F36" s="4">
-        <v>2</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C37" s="4">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="D37" s="4">
-        <v>3</v>
-      </c>
-      <c r="E37" s="4">
-        <v>1</v>
-      </c>
-      <c r="F37" s="4">
-        <v>2</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C38" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D38" s="4">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>0</v>
-      </c>
-      <c r="F38" s="4">
-        <v>1</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4">
-        <v>0</v>
-      </c>
-      <c r="F39" s="4">
-        <v>1</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="D40" s="4">
         <v>3</v>
       </c>
@@ -2736,9 +2729,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>12</v>
@@ -2760,9 +2753,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>12</v>
@@ -2784,9 +2777,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>12</v>
@@ -2808,9 +2801,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>12</v>
@@ -2832,9 +2825,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>12</v>
@@ -2856,9 +2849,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>12</v>
@@ -2876,13 +2869,13 @@
       <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>12</v>
@@ -2904,9 +2897,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>12</v>
@@ -2928,9 +2921,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>12</v>
@@ -2952,9 +2945,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>12</v>
@@ -2976,9 +2969,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>12</v>
@@ -3000,9 +2993,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>12</v>
@@ -3024,9 +3017,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>12</v>
@@ -3048,9 +3041,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>12</v>
@@ -3072,9 +3065,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>12</v>
@@ -3106,41 +3099,41 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.45"/>
   <cols>
-    <col min="5" max="5" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>13</v>
@@ -3161,9 +3154,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>13</v>
@@ -3184,9 +3177,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
@@ -3207,9 +3200,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>13</v>
@@ -3231,9 +3224,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -3251,13 +3244,13 @@
       <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>13</v>
@@ -3279,9 +3272,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -3303,9 +3296,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -3323,13 +3316,13 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>13</v>
@@ -3351,9 +3344,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>13</v>
@@ -3375,9 +3368,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>13</v>
@@ -3399,9 +3392,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>13</v>
@@ -3423,9 +3416,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
@@ -3443,13 +3436,13 @@
       <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>13</v>
@@ -3471,9 +3464,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>13</v>
@@ -3495,9 +3488,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>13</v>
@@ -3519,9 +3512,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>13</v>
@@ -3543,9 +3536,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>13</v>
@@ -3567,9 +3560,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>13</v>
@@ -3591,9 +3584,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>13</v>
@@ -3615,9 +3608,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>13</v>
@@ -3639,9 +3632,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>13</v>
@@ -3663,9 +3656,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>13</v>
@@ -3687,9 +3680,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>13</v>
@@ -3711,9 +3704,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>13</v>
@@ -3735,9 +3728,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>13</v>
@@ -3759,9 +3752,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>13</v>
@@ -3783,9 +3776,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>13</v>
@@ -3806,9 +3799,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>13</v>
@@ -3829,9 +3822,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>13</v>
@@ -3852,9 +3845,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>13</v>
@@ -3876,9 +3869,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>13</v>
@@ -3900,9 +3893,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>13</v>
@@ -3920,13 +3913,13 @@
       <c r="F34" s="4">
         <v>1</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>13</v>
@@ -3948,9 +3941,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>13</v>
@@ -3972,9 +3965,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>13</v>
@@ -3996,9 +3989,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>13</v>
@@ -4016,45 +4009,45 @@
       <c r="F38" s="4">
         <v>0</v>
       </c>
-      <c r="G38" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" s="4">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="B39" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" s="4">
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4">
+        <v>2</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" s="4">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="D39" s="4">
-        <v>2</v>
-      </c>
-      <c r="E39" s="4">
-        <v>2</v>
-      </c>
-      <c r="F39" s="4">
-        <v>2</v>
-      </c>
-      <c r="G39" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" s="4">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
       <c r="D40" s="4">
         <v>3</v>
       </c>
@@ -4068,9 +4061,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>13</v>
@@ -4092,9 +4085,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>13</v>
@@ -4112,13 +4105,13 @@
       <c r="F42" s="4">
         <v>1</v>
       </c>
-      <c r="G42" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>13</v>
@@ -4140,9 +4133,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>13</v>
@@ -4164,9 +4157,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>13</v>
@@ -4188,9 +4181,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>13</v>
@@ -4208,13 +4201,13 @@
       <c r="F46" s="4">
         <v>1</v>
       </c>
-      <c r="G46" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>13</v>
@@ -4236,9 +4229,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>13</v>
@@ -4260,9 +4253,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>13</v>
@@ -4284,9 +4277,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>13</v>
@@ -4308,9 +4301,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>13</v>
@@ -4332,9 +4325,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>13</v>
@@ -4356,9 +4349,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>13</v>
@@ -4380,9 +4373,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>13</v>
@@ -4404,9 +4397,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>13</v>
@@ -4655,45 +4648,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{914132DE-3F4D-4E71-AB4A-A4E91A72FC00}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{914132DE-3F4D-4E71-AB4A-A4E91A72FC00}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB45AA5F-0C84-49D3-937A-85501C94C0FC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2972b0dc-37a4-4443-8a0f-5e322e7b1dfd"/>
-    <ds:schemaRef ds:uri="ef110ae8-ab7e-4a21-adae-02b6ff5411d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB45AA5F-0C84-49D3-937A-85501C94C0FC}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411E1CBD-65D6-47D7-8AEA-40D31607A42C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="2972b0dc-37a4-4443-8a0f-5e322e7b1dfd"/>
-    <ds:schemaRef ds:uri="ef110ae8-ab7e-4a21-adae-02b6ff5411d3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411E1CBD-65D6-47D7-8AEA-40D31607A42C}"/>
 </file>
--- a/Data/Data.xlsx
+++ b/Data/Data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28803"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="536" documentId="11_B81F80CCF8841716E8AD35F2BE0E1CE044A6B22B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2A2B0F94-6205-4A59-B6B1-5EBF82CB2866}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1st sampling" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -434,16 +434,16 @@
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -466,7 +466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -489,7 +489,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -535,7 +535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -559,7 +559,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -583,7 +583,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -607,7 +607,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -631,7 +631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -655,7 +655,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -679,7 +679,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -703,7 +703,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -727,7 +727,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -751,7 +751,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -775,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,7 +823,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,7 +847,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -871,7 +871,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -895,7 +895,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,7 +919,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -967,7 +967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,7 +991,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1039,7 +1039,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -1204,7 +1204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -1252,7 +1252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -1276,7 +1276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -1372,7 +1372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -1396,7 +1396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -1492,7 +1492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -1516,7 +1516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -1588,7 +1588,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -1612,7 +1612,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -1684,7 +1684,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -1732,7 +1732,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -1765,18 +1765,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDC3B026-12F1-4A2A-B251-DD3DBC729025}">
   <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1845,7 +1845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -1868,7 +1868,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1892,7 +1892,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1964,7 +1964,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2012,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -2036,7 +2036,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -2108,7 +2108,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -2204,7 +2204,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -2228,7 +2228,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -2348,7 +2348,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -2372,7 +2372,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -2396,7 +2396,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -2444,7 +2444,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -2513,7 +2513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -2537,7 +2537,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -2561,7 +2561,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -2585,7 +2585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -2633,7 +2633,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -2681,7 +2681,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -2705,7 +2705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -2801,7 +2801,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -2825,7 +2825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -2849,7 +2849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -2873,7 +2873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -2897,7 +2897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -2921,7 +2921,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -2945,7 +2945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -2969,7 +2969,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -2993,7 +2993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -3099,16 +3099,16 @@
   <dimension ref="A1:G55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3131,7 +3131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -3154,7 +3154,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -3177,7 +3177,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>7</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>7</v>
       </c>
@@ -3536,7 +3536,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>7</v>
       </c>
@@ -3584,7 +3584,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>7</v>
       </c>
@@ -3608,7 +3608,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -3704,7 +3704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -3728,7 +3728,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>7</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>7</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>11</v>
       </c>
@@ -3799,7 +3799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>11</v>
       </c>
@@ -3822,7 +3822,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
@@ -3845,7 +3845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>11</v>
       </c>
@@ -3869,7 +3869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
         <v>11</v>
       </c>
@@ -3893,7 +3893,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>11</v>
       </c>
@@ -3917,7 +3917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
         <v>11</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>11</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
         <v>11</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>11</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
         <v>11</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>11</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="4" t="s">
         <v>11</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>11</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="4" t="s">
         <v>11</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>11</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="4" t="s">
         <v>11</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>11</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="4" t="s">
         <v>11</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>11</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="4" t="s">
         <v>11</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>11</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="4" t="s">
         <v>11</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>11</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="4" t="s">
         <v>11</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>11</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="4" t="s">
         <v>11</v>
       </c>
@@ -4427,15 +4427,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100D3C73EB4DC7E424F8E88976083EFB40A" ma:contentTypeVersion="12" ma:contentTypeDescription="Opret et nyt dokument." ma:contentTypeScope="" ma:versionID="9e56642614725b15175a754afa580b34">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2972b0dc-37a4-4443-8a0f-5e322e7b1dfd" xmlns:ns3="ef110ae8-ab7e-4a21-adae-02b6ff5411d3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8f87c21b0a9332d8d443fbfceef534e3" ns2:_="" ns3:_="">
     <xsd:import namespace="2972b0dc-37a4-4443-8a0f-5e322e7b1dfd"/>
@@ -4636,6 +4627,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -4648,13 +4648,39 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{914132DE-3F4D-4E71-AB4A-A4E91A72FC00}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB45AA5F-0C84-49D3-937A-85501C94C0FC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2972b0dc-37a4-4443-8a0f-5e322e7b1dfd"/>
+    <ds:schemaRef ds:uri="ef110ae8-ab7e-4a21-adae-02b6ff5411d3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB45AA5F-0C84-49D3-937A-85501C94C0FC}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{914132DE-3F4D-4E71-AB4A-A4E91A72FC00}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411E1CBD-65D6-47D7-8AEA-40D31607A42C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{411E1CBD-65D6-47D7-8AEA-40D31607A42C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="ef110ae8-ab7e-4a21-adae-02b6ff5411d3"/>
+    <ds:schemaRef ds:uri="2972b0dc-37a4-4443-8a0f-5e322e7b1dfd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>